--- a/biology/Zoologie/Argyrogrammana_alstonii/Argyrogrammana_alstonii.xlsx
+++ b/biology/Zoologie/Argyrogrammana_alstonii/Argyrogrammana_alstonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana alstonii est une espèce de papillons de la famille des Riodinidae et du genre Argyrogrammana.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrogrammana alstonii a été nommée par Paul Edgar Smart (d) en 1979[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana alstonii a été nommée par Paul Edgar Smart (d) en 1979
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Argyrogrammana alstonii est un papillon de couleur jaune d'or et noir taché de bleu. Sur le dessus les ailes antérieures ont une petite partie basale jaune d'or et tout le reste de l'aile noire avec des taches bleu métallique ; les ailes postérieures ont une partie basale jaune d'or et une large bordure noire.
 </t>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,12 +617,49 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Argyrogrammana alstonii est présent en Guyane et à Trinité-et-Tobago[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrogrammana alstonii est présent en Guyane et à Trinité-et-Tobago.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argyrogrammana_alstonii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyrogrammana_alstonii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
         </is>
       </c>
     </row>
